--- a/MOMENTUM! 2024-C/可视化需求/1.3 Q (PCA)/主成分分析矩阵 (2).xlsx
+++ b/MOMENTUM! 2024-C/可视化需求/1.3 Q (PCA)/主成分分析矩阵 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qq文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\MCM-ICM-Learning\MOMENTUM! 2024-C\可视化需求\1.3 Q (PCA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7863A2A6-DC3F-44C3-A1FA-F3222E92A401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B909FE5B-2FF2-4CC2-94F7-03CE48664760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{80870D50-1282-4E56-A554-C6B896C6E216}"/>
+    <workbookView xWindow="3220" yWindow="5560" windowWidth="2370" windowHeight="560" xr2:uid="{80870D50-1282-4E56-A554-C6B896C6E216}"/>
   </bookViews>
   <sheets>
     <sheet name="V " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,47 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,7 +568,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22:O23"/>
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1587,7 +1627,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:K29 B31:K1048576">
+  <conditionalFormatting sqref="B1:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>-0.3</formula>
       <formula>0.3</formula>
